--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_261.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_261.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,644 +488,670 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3174603174603174</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'A', 'A/b7']]</t>
-        </is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_59</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1182170542635659</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F/5', 'C', 'C/7', 'C/b7']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(33.317006, 41.86195)]</t>
+          <t>[['G', 'C', 'G/3']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(96.219, 102.317)]</t>
+          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+          <t>[('0:00:18.826145', '0:00:26.430680')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1009615384615385</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_246</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1875</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'G', 'C:maj']]</t>
+          <t>[['A', 'D', 'D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(65.382154, 74.101247)]</t>
+          <t>[['A', 'D', 'D/2']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(32.808, 36.091)]</t>
+          <t>[('0:00:55.641383', '0:01:01.040381')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>[('0:00:52.196388', '0:00:57.251357')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E', 'A', 'E', 'B', 'E']]</t>
-        </is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_34</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1469404186795491</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:maj', 'D:maj', 'G:maj', 'D:maj', 'A:maj', 'D:maj']]</t>
+          <t>[['A', 'D', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(26.343061, 45.720113)]</t>
+          <t>[['Bb', 'Eb', 'Eb/5', 'Ab', 'Eb/3']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(27.771, 54.976)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:07.605000', '0:00:14.292000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:21.397573', '0:01:32.322562')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_44</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_184</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2071428571428571</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04807692307692308</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min', 'E']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(5.497891, 9.516363)]</t>
+          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(27.974807, 36.51975)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:01:16.560000', '0:01:27.040000'), ('0:00:47.580000', '0:00:50.040000'), ('0:01:37.880000', '0:01:48.980000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:04:13.840000', '0:04:17.600000'), ('0:00:25.800000', '0:00:29.460000'), ('0:00:09.600000', '0:00:13.300000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.6708333333333334</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_34</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06919406150583245</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['F', 'F:7', 'Bb'], ['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(119.32, 121.92)]</t>
+          <t>[['Eb', 'Eb:7/b7', 'Ab'], ['Eb/5', 'Ab', 'Eb/3']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(24.28, 51.08)]</t>
+          <t>[('0:00:29.470000', '0:00:32.220000'), ('0:01:02.530000', '0:01:06.230000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:07.604557', '0:00:14.675034'), ('0:01:26.923922', '0:01:32.322562')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.05918762088974855</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5357142857142857</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj'], ['E:maj/B', 'B:maj', 'B:7', 'E:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(25.807392, 30.753242)]</t>
+          <t>[['A', 'D', 'A', 'E'], ['A', 'E', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(51.315598, 56.291541)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>[('0:00:55.580000', '0:01:06.200000'), ('0:02:08.580000', '0:02:23.820000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:40.490000', '0:00:50.260000'), ('0:00:00.522000', '0:00:07.205000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(112.24, 117.7)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(112.14, 117.46)]</t>
+          <t>[('0:00:07.580000', '0:00:20.100000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:03.040000', '0:01:05.240000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1407407407407407</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'D']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(0.46, 4.14)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(6.536, 11.853)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:01.340000', '0:00:08.860000'), ('0:00:54.180000', '0:01:01.460000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:03.100000', '0:01:04.500000'), ('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_1</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B'], ['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(205.86, 217.18), (227.46, 241.44)]</t>
+          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(4.83, 12.97), (2.77, 10.94)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:43', '0:02:02.840000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:25', '0:00:35.520000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:maj/G', 'G:7', 'C:min'], ['C:min', 'G:7/D', 'C:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52), (36.34, 37.98), (9.78, 14.36)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (56.44, 66.34), (0.36, 7.14)]</t>
+          <t>[('0:00:24.280000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_99</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_65</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2875</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'G#', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min', 'A', 'F#:min']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(2.154217, 5.66043)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(126.857, 135.244)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:00.700000', '0:00:21.420000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.560000', '0:00:25.400000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58)]</t>
+          <t>[('0:00:09.700000', '0:01:02.320000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:10.560000', '0:01:09.420000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1101190476190476</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F', 'C'], ['F', 'Bb', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D'], ['G', 'C', 'G']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.749659, 21.811609), (15.124263, 20.058503)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(63.524557, 70.536984), (7.668956, 11.14034)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:30.780000', '0:01:53.600000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_49</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1053956834532374</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C', 'C/5', 'C']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(45.54, 47.95)]</t>
+          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(159.135941, 175.912358)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:09.140000', '0:01:50.260000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:05.840000', '0:01:44.720000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(43.38, 45.8)]</t>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:12.820000', '0:00:52.640000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_31</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2318840579710145</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(7.9, 16.08)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(17.48, 19.72)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
